--- a/src/test/resources/importTest/testdataclass_erweitert_multitableimport.xlsx
+++ b/src/test/resources/importTest/testdataclass_erweitert_multitableimport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="testdataclass" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="testdataclassnomappingfile" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TestDataClass" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TestTableSimple" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">import</t>
   </si>
@@ -32,10 +32,19 @@
     <t xml:space="preserve">unnuetzesFeld</t>
   </si>
   <si>
+    <t xml:space="preserve">dateField</t>
+  </si>
+  <si>
     <t xml:space="preserve">TestDatensatz1</t>
   </si>
   <si>
+    <t xml:space="preserve">01.01.2015</t>
+  </si>
+  <si>
     <t xml:space="preserve">TesDatensatz2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.2016</t>
   </si>
   <si>
     <t xml:space="preserve">testFieldImport</t>
@@ -48,10 +57,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -72,6 +82,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -123,12 +147,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,33 +249,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="A1:B3 C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -243,13 +288,19 @@
       <c r="C2" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -270,26 +321,26 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D2:D3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -297,7 +348,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
